--- a/Datasets/celtiis_benin.xlsx
+++ b/Datasets/celtiis_benin.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="269">
-  <si>
-    <t>content</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="268">
   <si>
     <t>text</t>
   </si>
@@ -826,8 +823,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,10 +836,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -862,16 +859,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,17 +876,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -898,10 +906,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -939,69 +947,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,54 +1035,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1082,7 +1091,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1091,7 +1100,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1100,7 +1109,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1108,10 +1117,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1140,7 +1149,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1153,13 +1162,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1177,1514 +1185,1517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="A67" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+      <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+      <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="A76" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+      <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+      <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+      <c r="A83" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+      <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+      <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+      <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+      <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+      <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
+      <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
+      <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
+      <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+      <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+      <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+      <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+      <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+      <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+      <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+      <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+      <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+      <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+      <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+      <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+      <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+      <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+      <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
+      <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
+      <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
+      <c r="A113" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
+      <c r="A114" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
+      <c r="A115" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
+      <c r="A116" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
+      <c r="A117" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
+      <c r="A118" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
+      <c r="A119" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
+      <c r="A120" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
+      <c r="A121" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
+      <c r="A122" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
+      <c r="A123" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
+      <c r="A124" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
+      <c r="A125" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
+      <c r="A126" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
+      <c r="A127" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
+      <c r="A128" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
+      <c r="A129" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
+      <c r="A130" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
+      <c r="A131" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
+      <c r="A132" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
+      <c r="A133" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
+      <c r="A134" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
+      <c r="A135" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
+      <c r="A136" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
+      <c r="A137" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
+      <c r="A138" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
+      <c r="A139" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
+      <c r="A140" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
+      <c r="A141" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
+      <c r="A142" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
+      <c r="A143" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
+      <c r="A144" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
+      <c r="A145" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
+      <c r="A146" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
+      <c r="A147" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
+      <c r="A148" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
+      <c r="A149" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
+      <c r="A150" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
+      <c r="A151" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
+      <c r="A152" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
+      <c r="A153" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
+      <c r="A154" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
+      <c r="A155" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
+      <c r="A156" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
+      <c r="A157" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
+      <c r="A158" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
+      <c r="A159" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
+      <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
+      <c r="A161" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
+      <c r="A162" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
+      <c r="A163" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
+      <c r="A164" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
+      <c r="A165" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
+      <c r="A166" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
+      <c r="A167" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
+      <c r="A168" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
+      <c r="A169" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
+      <c r="A170" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+      <c r="A171" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+      <c r="A172" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+      <c r="A173" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+      <c r="A174" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+      <c r="A175" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+      <c r="A176" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
+      <c r="A177" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
+      <c r="A178" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
+      <c r="A179" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
+      <c r="A180" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
+      <c r="A181" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
+      <c r="A182" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
+      <c r="A183" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
+      <c r="A184" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
+      <c r="A185" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
+      <c r="A186" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
+      <c r="A187" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
+      <c r="A188" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
+      <c r="A189" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
+      <c r="A190" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
+      <c r="A191" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
+      <c r="A192" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
+      <c r="A193" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
+      <c r="A194" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
+      <c r="A195" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
+      <c r="A196" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
+      <c r="A197" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
+      <c r="A198" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
+      <c r="A199" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
+      <c r="A200" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
+      <c r="A201" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="B201" t="s">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
+      <c r="A202" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="B202" t="s">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
+      <c r="A203" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="B203" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
+      <c r="A204" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="B204" t="s">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
+      <c r="A205" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="B205" t="s">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
+      <c r="A206" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="B206" t="s">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
+      <c r="A207" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="B207" t="s">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
+      <c r="A208" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="B208" t="s">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
+      <c r="A209" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
+      <c r="A210" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" t="s">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
+      <c r="A211" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
+      <c r="A212" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
+      <c r="A213" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
+      <c r="A214" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
+      <c r="A215" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
+      <c r="A216" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
+      <c r="A217" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
+      <c r="A218" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
+      <c r="A219" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
+      <c r="A220" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
+      <c r="A221" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
+      <c r="A222" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" t="s">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
+      <c r="A223" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
+      <c r="A224" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
+      <c r="A225" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
+      <c r="A226" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
+      <c r="A227" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
+      <c r="A228" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
+      <c r="A229" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
+      <c r="A230" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
+      <c r="A231" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
+      <c r="A232" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
+      <c r="A233" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
+      <c r="A234" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" t="s">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
+      <c r="A235" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18">
+      <c r="A236" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18">
+      <c r="A237" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
+      <c r="A238" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" t="s">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
+      <c r="A239" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
+      <c r="A240" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" t="s">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
+      <c r="A241" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
+      <c r="A242" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" t="s">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
+      <c r="A243" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" t="s">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
+      <c r="A244" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
+      <c r="A245" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
+      <c r="A246" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
+      <c r="A247" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
+      <c r="A248" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" t="s">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
+      <c r="A249" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
+      <c r="A250" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" t="s">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
+      <c r="A251" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
+      <c r="A252" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
+      <c r="A253" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
+      <c r="A254" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" t="s">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
+      <c r="A255" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
+      <c r="A256" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
-      <c r="B256" t="s">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
+      <c r="A257" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
+      <c r="A258" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
-      <c r="B258" t="s">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
+      <c r="A259" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
+      <c r="A260" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
-      <c r="B260" t="s">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
+      <c r="A261" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" t="s">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
+      <c r="A262" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
-      <c r="B262" t="s">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
+      <c r="A263" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
+      <c r="A264" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
+      <c r="A265" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
+      <c r="A266" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
-      <c r="B266" t="s">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
+      <c r="A267" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
+      <c r="A268" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" t="s">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
+      <c r="A269" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
+      <c r="A270" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
-      <c r="B270" t="s">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
+      <c r="A271" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
-      <c r="B271" t="s">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
+      <c r="A272" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18">
+      <c r="A273" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" t="s">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18">
+      <c r="A274" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" t="s">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
+      <c r="A275" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
+      <c r="A276" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
+      <c r="A277" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
-      <c r="B275" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
+      <c r="A278" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
-      <c r="B278" t="s">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
+      <c r="A279" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" t="s">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
+      <c r="A280" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" t="s">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
+      <c r="A281" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
+      <c r="A282" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
-      <c r="B282" t="s">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
+      <c r="A283" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
-      <c r="B283" t="s">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
+      <c r="A284" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
+      <c r="A285" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" t="s">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
+      <c r="A286" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
+      <c r="A287" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" t="s">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
+      <c r="A288" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
-      <c r="B288" t="s">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
+      <c r="A289" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
-      <c r="B289" t="s">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
+      <c r="A290" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" t="s">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
+      <c r="A291" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
+      <c r="A292" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
+      <c r="A293" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18">
+      <c r="A294" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
-      <c r="B291" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" t="s">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18">
+      <c r="A295" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="295" spans="2:2">
-      <c r="B295" t="s">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
+      <c r="A296" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" t="s">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
+      <c r="A297" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
-      <c r="B297" t="s">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
+      <c r="A298" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
-      <c r="B298" t="s">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
+      <c r="A299" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
-      <c r="B299" t="s">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
+      <c r="A300" s="2" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
